--- a/biology/Médecine/Hellmuth_Unger/Hellmuth_Unger.xlsx
+++ b/biology/Médecine/Hellmuth_Unger/Hellmuth_Unger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Hermann Hellmuth Unger (pseudonymes : Fritz Herrmann, Hans Holm), né le 10 février 1891 à Nordhausen et mort le 13 juillet 1953 à Fribourg-en-Brisgau, est un médecin et écrivain allemand impliqué dans le programme d'« euthanasie » des enfants sous le Troisième Reich.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hellmuth Unger étudie la médecine à l'université de Wurtzbourg, puis en 1913 à Rostock[1], Halle (Saale) et Leipzig. Il sert en 1915 comme médecin militaire en Galicie et dans les Carpates, tout en étant correspondant de guerre. Blessé, il obtient la Croix de fer de deuxième classe, puis rejoint Leipzig, où il se marie en 1916. Il est promu Docteur en médecine en 1917. Après deux années à la clinique ophtalmologique de Leipzig, Unger travaille comme ophtalmologue libéral de 1919 à 1929. Il voyage alors beaucoup, en Afrique, en Scandinavie, aux États-Unis, au Canada et dans les Caraïbes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hellmuth Unger étudie la médecine à l'université de Wurtzbourg, puis en 1913 à Rostock, Halle (Saale) et Leipzig. Il sert en 1915 comme médecin militaire en Galicie et dans les Carpates, tout en étant correspondant de guerre. Blessé, il obtient la Croix de fer de deuxième classe, puis rejoint Leipzig, où il se marie en 1916. Il est promu Docteur en médecine en 1917. Après deux années à la clinique ophtalmologique de Leipzig, Unger travaille comme ophtalmologue libéral de 1919 à 1929. Il voyage alors beaucoup, en Afrique, en Scandinavie, aux États-Unis, au Canada et dans les Caraïbes.
 Hellmuth Unger écrit alors plusieurs pièces de théâtre ainsi que de nombreux romans.
 Il abandonne en 1929 son cabinet et déménage à Berlin, où il travaille pour l'ordre des médecins. Si, en raison de son appartenance à une loge maçonnique, il n'adhère pas au NSDAP, il exerce cependant d'importantes responsabilités après la prise de pouvoir des nazis. Il est employé dès mai 1933 par l'organisme qui devient bientôt le Rassenpolitisches Amt der NSDAP, et fonde le journal Neues Volk; il devient l'attaché de presse de Gerhard Wagner comme de la Chambre des médecins du Reich. Après 1938, il est le rédacteur en chef de l'ensemble des publications médicales régionales allemandes, et diffuse en tant que membre de la Commission du Reich pour l'enregistrement scientifique des souffrances héréditaires et congénitales graves la propagande eugéniste et raciale du régime nazi. Il inspire ainsi le programme « d'euthanasie » des enfants mis en œuvre après 1938.
 Les ouvrages d'Hellmuth Unger atteignent sous le Troisième Reich de forts tirages, tels sa biographie de Robert Koch (300 000 exemplaires vendus) ou son roman Sendung und Gewissen, dont est inspiré le film de propagande de 1941 Ich klage an.
@@ -546,7 +560,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die Lieder der hellen Tage, Gera 1912
 Sturm im Osten, Chemnitz 1915
